--- a/output/tablas/descriptivos/tablas_complementarias.xlsx
+++ b/output/tablas/descriptivos/tablas_complementarias.xlsx
@@ -1,22 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dafne\Dropbox\Mi PC (LAPTOP-S31LO2T3)\Desktop\GitHub\tesis\output\tablas\descriptivos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E6BD1F-C96D-419E-949E-B61E02AE79CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4356" yWindow="3372" windowWidth="14580" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>objeto_encuesta$variables$`M6_or$predclass`</t>
+  </si>
+  <si>
+    <t>prop_upp_Cesante</t>
+  </si>
+  <si>
+    <t>prop_Cesante</t>
+  </si>
+  <si>
+    <t>prop_low_Cesante</t>
+  </si>
+  <si>
+    <t>prop_upp_Inactivo</t>
+  </si>
+  <si>
+    <t>prop_Inactivo</t>
+  </si>
+  <si>
+    <t>prop_low_Inactivo</t>
+  </si>
+  <si>
+    <t>prop_upp_Trabajando</t>
+  </si>
+  <si>
+    <t>prop_Trabajando</t>
+  </si>
+  <si>
+    <t>prop_low_Trabajando</t>
+  </si>
+  <si>
+    <t>Tabla 4. Proporciones por clase de precariedad y sexo</t>
+  </si>
+  <si>
+    <t>Clases</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cesante</t>
+  </si>
+  <si>
+    <t>CI 95%</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
+  </si>
+  <si>
+    <t>Clase 2</t>
+  </si>
+  <si>
+    <t>16.5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (13,9 - 19,2%)</t>
+  </si>
+  <si>
+    <t>73.6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (70,9 - 76,3%)</t>
+  </si>
+  <si>
+    <t>25.2 %</t>
+  </si>
+  <si>
+    <t>Clase 6</t>
+  </si>
+  <si>
+    <t>74.3 %</t>
+  </si>
+  <si>
+    <t>83.5 %</t>
+  </si>
+  <si>
+    <t>(80,8 - 86,1%)</t>
+  </si>
+  <si>
+    <t>25.7 %</t>
+  </si>
+  <si>
+    <t>26.4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (23,7 - 29,1%)</t>
+  </si>
+  <si>
+    <t>29.2 %</t>
+  </si>
+  <si>
+    <t>28.5 %</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +151,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -41,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -49,14 +202,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -64,11 +303,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -110,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +389,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +441,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,166 +634,366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:G33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>objeto_encuesta$variables$`M6_or$predclass`</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prop_upp_Cesante</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>prop_Cesante</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prop_low_Cesante</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>prop_upp_Inactivo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>prop_Inactivo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>prop_low_Inactivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>19.2</v>
+      </c>
+      <c r="C2">
+        <v>16.5</v>
+      </c>
+      <c r="D2">
+        <v>13.9</v>
+      </c>
+      <c r="E2">
+        <v>76.3</v>
+      </c>
+      <c r="F2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G2">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>86.1</v>
+      </c>
+      <c r="C3">
+        <v>83.5</v>
+      </c>
+      <c r="D3">
+        <v>80.8</v>
+      </c>
+      <c r="E3">
+        <v>29.1</v>
+      </c>
+      <c r="F3">
+        <v>26.4</v>
+      </c>
+      <c r="G3">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>_xlfn.CONCAT("(",D2," - ",B2,"%)")</f>
+        <v>(13,9 - 19,2%)</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xlfn.CONCAT("(",G2," - ",E2,"%)")</f>
+        <v>(70,9 - 76,3%)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("(",D3," - ",B3,"%)")</f>
+        <v>(80,8 - 86,1%)</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("(",G3," - ",E3,"%)")</f>
+        <v>(23,7 - 29,1%)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="2:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>19.2</v>
-      </c>
-      <c r="C6">
-        <v>16.5</v>
-      </c>
-      <c r="D6">
-        <v>13.9</v>
-      </c>
-      <c r="E6">
-        <v>76.3</v>
-      </c>
-      <c r="F6">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="G6">
-        <v>70.90000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="C7">
-        <v>83.5</v>
-      </c>
-      <c r="D7">
-        <v>80.8</v>
-      </c>
-      <c r="E7">
-        <v>29.1</v>
-      </c>
-      <c r="F7">
-        <v>26.4</v>
-      </c>
-      <c r="G7">
-        <v>23.7</v>
-      </c>
+    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="18"/>
+      <c r="C29" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="18"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="18"/>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="19"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="F21:F23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>objeto_encuesta$variables$`M6_or$predclass`</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prop_upp_Trabajando</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>prop_Trabajando</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prop_low_Trabajando</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C2">
         <v>35</v>
       </c>
       <c r="D2">
-        <v>32.2</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -518,18 +1001,18 @@
         <v>43.3</v>
       </c>
       <c r="C3">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D3">
-        <v>36.2</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C4">
         <v>15.5</v>
@@ -538,7 +1021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -546,18 +1029,18 @@
         <v>11.3</v>
       </c>
       <c r="C5">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D5">
         <v>8.1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
